--- a/biology/Botanique/Jardin_naturel_Pierre-Emmanuel_(Paris)/Jardin_naturel_Pierre-Emmanuel_(Paris).xlsx
+++ b/biology/Botanique/Jardin_naturel_Pierre-Emmanuel_(Paris)/Jardin_naturel_Pierre-Emmanuel_(Paris).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin naturel Pierre-Emmanuel est un jardin public du 20e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est situé au pied du cimetière du Père-Lachaise, accessible par la rue de Lesseps ou la rue de la Réunion.
 Ce site est desservi par la ligne 2 à la station de métro Alexandre Dumas.
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin rend hommage à Pierre Emmanuel (1916-1984), un poète et écrivain français, membre de l’Académie française, dont la tombe se trouve au Père-Lachaise[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin rend hommage à Pierre Emmanuel (1916-1984), un poète et écrivain français, membre de l’Académie française, dont la tombe se trouve au Père-Lachaise.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé en 1995 à la suite d'un concours remporté par les paysagistes Agnès Bochet et Laurent Gérard, le square s'étend sur 6 300 m2/6 500 m2[2]. 
-Ce jardin parisien n'est pas comme les autres squares : à l'instar du " jardin sauvage " du Jardin des plantes, il est planté de végétaux sauvages caractéristiques de différents milieux naturels d'Île-de-France et ses prairies ne sont fauchées que deux ou trois fois par an[3], mais contrairement à son homologue, il est ouvert tous les jours au public, sans rendez-vous. Il s'agit d'une véritable réserve de biodiversité dont la mare accueille grenouilles, nénuphars et tritons[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé en 1995 à la suite d'un concours remporté par les paysagistes Agnès Bochet et Laurent Gérard, le square s'étend sur 6 300 m2/6 500 m2. 
+Ce jardin parisien n'est pas comme les autres squares : à l'instar du " jardin sauvage " du Jardin des plantes, il est planté de végétaux sauvages caractéristiques de différents milieux naturels d'Île-de-France et ses prairies ne sont fauchées que deux ou trois fois par an, mais contrairement à son homologue, il est ouvert tous les jours au public, sans rendez-vous. Il s'agit d'une véritable réserve de biodiversité dont la mare accueille grenouilles, nénuphars et tritons.
 			Entrée du jardin, rue de la Réunion.
 			Mare.
 			Allée.
